--- a/CompLaagBond/test-files/test_bk-indoor-teams_f8.xlsx
+++ b/CompLaagBond/test-files/test_bk-indoor-teams_f8.xlsx
@@ -1357,7 +1357,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="195">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1982,7 +1982,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2002,7 +2002,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2022,10 +2022,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2042,7 +2038,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2098,7 +2094,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2130,7 +2126,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2360,7 +2356,7 @@
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D33 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2648,7 +2644,7 @@
   <dimension ref="B1:I18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D33 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.11328125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2803,7 +2799,7 @@
   <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+      <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.11328125" defaultRowHeight="12.75" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2974,7 +2970,7 @@
         <v>75</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>8.241</v>
+        <v>8.541</v>
       </c>
       <c r="H10" s="33" t="n">
         <v>263</v>
@@ -2999,7 +2995,7 @@
         <v>76</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>8.291</v>
+        <v>8.766</v>
       </c>
       <c r="H11" s="33" t="n">
         <v>269</v>
@@ -3024,7 +3020,7 @@
         <v>77</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>8.366</v>
+        <v>8.641</v>
       </c>
       <c r="H12" s="33" t="n">
         <v>258</v>
@@ -3108,7 +3104,7 @@
         <v>81</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>8.271</v>
+        <v>8.642</v>
       </c>
       <c r="H16" s="33" t="n">
         <v>258</v>
@@ -3133,7 +3129,7 @@
         <v>82</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>8.321</v>
+        <v>8.467</v>
       </c>
       <c r="H17" s="33" t="n">
         <v>247</v>
@@ -3158,7 +3154,7 @@
         <v>83</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>8.396</v>
+        <v>8.717</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>246</v>
@@ -3236,7 +3232,7 @@
         <v>87</v>
       </c>
       <c r="G22" s="34" t="n">
-        <v>7.275</v>
+        <v>8.341</v>
       </c>
       <c r="H22" s="33" t="n">
         <v>255</v>
@@ -3261,7 +3257,7 @@
         <v>88</v>
       </c>
       <c r="G23" s="34" t="n">
-        <v>7.325</v>
+        <v>8.391</v>
       </c>
       <c r="H23" s="33" t="n">
         <v>249</v>
@@ -3286,7 +3282,7 @@
         <v>89</v>
       </c>
       <c r="G24" s="34" t="n">
-        <v>7.35</v>
+        <v>8.266</v>
       </c>
       <c r="H24" s="33" t="n">
         <v>0</v>
@@ -3311,7 +3307,7 @@
         <v>90</v>
       </c>
       <c r="G25" s="34" t="n">
-        <v>7.4</v>
+        <v>8.466</v>
       </c>
       <c r="H25" s="33" t="n">
         <v>200</v>
@@ -3370,7 +3366,7 @@
         <v>92</v>
       </c>
       <c r="G28" s="34" t="n">
-        <v>7.275</v>
+        <v>8.717</v>
       </c>
       <c r="H28" s="33" t="n">
         <v>242</v>
@@ -3395,7 +3391,7 @@
         <v>93</v>
       </c>
       <c r="G29" s="34" t="n">
-        <v>7.325</v>
+        <v>8.767</v>
       </c>
       <c r="H29" s="33" t="n">
         <v>220</v>
@@ -3420,7 +3416,7 @@
         <v>94</v>
       </c>
       <c r="G30" s="34" t="n">
-        <v>7.35</v>
+        <v>8.817</v>
       </c>
       <c r="H30" s="33" t="n">
         <v>221</v>
@@ -3498,7 +3494,7 @@
         <v>96</v>
       </c>
       <c r="G34" s="34" t="n">
-        <v>6</v>
+        <v>8.816</v>
       </c>
       <c r="H34" s="33" t="n">
         <v>101</v>
@@ -3523,7 +3519,7 @@
         <v>97</v>
       </c>
       <c r="G35" s="34" t="n">
-        <v>6</v>
+        <v>8.866</v>
       </c>
       <c r="H35" s="33" t="n">
         <v>102</v>
@@ -3548,7 +3544,7 @@
         <v>98</v>
       </c>
       <c r="G36" s="34" t="n">
-        <v>6</v>
+        <v>9.016</v>
       </c>
       <c r="H36" s="33" t="n">
         <v>103</v>
@@ -3573,7 +3569,7 @@
         <v>99</v>
       </c>
       <c r="G37" s="34" t="n">
-        <v>6</v>
+        <v>7.025</v>
       </c>
       <c r="H37" s="33" t="n">
         <v>104</v>
@@ -4379,7 +4375,7 @@
   <dimension ref="A2:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="D33 D20"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5520,7 +5516,7 @@
   <dimension ref="A1:AS39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="1" sqref="D33 F18"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5854,40 +5850,40 @@
         <f aca="false">F12+H12</f>
         <v>1</v>
       </c>
-      <c r="AF12" s="166" t="b">
+      <c r="AF12" s="165" t="b">
         <f aca="false">AND(AD13=TRUE(),AE12&gt;AE14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="167"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="171" t="str">
+      <c r="A13" s="166"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="170" t="str">
         <f aca="false">IF(AC13=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I13" s="171"/>
+      <c r="I13" s="170"/>
       <c r="J13" s="162"/>
       <c r="K13" s="163"/>
       <c r="L13" s="151"/>
-      <c r="AB13" s="166" t="b">
+      <c r="AB13" s="165" t="b">
         <f aca="false">AND(F12&lt;&gt;"",F14&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AC13" s="166" t="b">
+      <c r="AC13" s="165" t="b">
         <f aca="false">AND(AB13=TRUE(),F12=F14)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="166" t="b">
+      <c r="AD13" s="165" t="b">
         <f aca="false">IF(AB13=FALSE(),FALSE(),OR(AC13=FALSE(),AND(H12&lt;&gt;"",H14&lt;&gt;"")))</f>
         <v>1</v>
       </c>
-      <c r="AE13" s="170"/>
-      <c r="AF13" s="170"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="169"/>
       <c r="AH13" s="152" t="s">
         <v>118</v>
       </c>
@@ -5923,7 +5919,7 @@
       </c>
       <c r="G14" s="159"/>
       <c r="H14" s="160"/>
-      <c r="I14" s="172" t="str">
+      <c r="I14" s="171" t="str">
         <f aca="false">IF(AND(ABS(H12-H14)&lt;1,H14&gt;H12),"*","")</f>
         <v/>
       </c>
@@ -5935,7 +5931,7 @@
       <c r="P14" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="S14" s="173"/>
+      <c r="S14" s="172"/>
       <c r="AB14" s="164"/>
       <c r="AC14" s="165"/>
       <c r="AD14" s="165"/>
@@ -5943,7 +5939,7 @@
         <f aca="false">F14+H14</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="166" t="b">
+      <c r="AF14" s="165" t="b">
         <f aca="false">AND(AD13=TRUE(),AE14&gt;AE12)</f>
         <v>0</v>
       </c>
@@ -5954,15 +5950,15 @@
       <c r="AM14" s="154"/>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="167"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="151"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
       <c r="J15" s="162"/>
       <c r="K15" s="155" t="n">
         <v>1</v>
@@ -5971,7 +5967,7 @@
         <f aca="false">IF(AF12=TRUE(),B12,IF(AF14=TRUE(),B14,""))</f>
         <v>team-4091-2-C</v>
       </c>
-      <c r="M15" s="177"/>
+      <c r="M15" s="176"/>
       <c r="N15" s="158" t="n">
         <v>29</v>
       </c>
@@ -5981,8 +5977,8 @@
         <f aca="false">IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
-      <c r="R15" s="178"/>
-      <c r="S15" s="173"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="172"/>
       <c r="AB15" s="164"/>
       <c r="AC15" s="165"/>
       <c r="AD15" s="165"/>
@@ -5993,68 +5989,68 @@
         <f aca="false">N15+P15</f>
         <v>29</v>
       </c>
-      <c r="AL15" s="166" t="b">
+      <c r="AL15" s="165" t="b">
         <f aca="false">AND(AJ16=TRUE(),AK15&gt;AK17)</f>
         <v>1</v>
       </c>
       <c r="AM15" s="154"/>
       <c r="AN15" s="152"/>
       <c r="AO15" s="152"/>
-      <c r="AP15" s="179"/>
+      <c r="AP15" s="178"/>
       <c r="AQ15" s="153"/>
       <c r="AR15" s="153"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="167"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="179"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
       <c r="J16" s="163"/>
       <c r="K16" s="163"/>
-      <c r="L16" s="168"/>
-      <c r="N16" s="169"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="171" t="str">
+      <c r="L16" s="167"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="169"/>
+      <c r="P16" s="170" t="str">
         <f aca="false">IF(AI16=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="178"/>
+      <c r="Q16" s="180"/>
+      <c r="R16" s="177"/>
       <c r="T16" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="U16" s="182"/>
-      <c r="V16" s="182"/>
-      <c r="W16" s="182"/>
+      <c r="U16" s="181"/>
+      <c r="V16" s="181"/>
+      <c r="W16" s="181"/>
       <c r="X16" s="150"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="166" t="b">
+      <c r="AB16" s="172"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="172"/>
+      <c r="AF16" s="172"/>
+      <c r="AG16" s="172"/>
+      <c r="AH16" s="165" t="b">
         <f aca="false">AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AI16" s="166" t="b">
+      <c r="AI16" s="165" t="b">
         <f aca="false">AND(AH16=TRUE(),N15=N17)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="166" t="b">
+      <c r="AJ16" s="165" t="b">
         <f aca="false">IF(AH16=FALSE(),FALSE(),OR(AI16=FALSE(),AND(P15&lt;&gt;"",P17&lt;&gt;"")))</f>
         <v>1</v>
       </c>
-      <c r="AK16" s="170"/>
-      <c r="AL16" s="170"/>
+      <c r="AK16" s="169"/>
+      <c r="AL16" s="169"/>
       <c r="AM16" s="151"/>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I17" s="167"/>
+      <c r="I17" s="166"/>
       <c r="J17" s="162"/>
       <c r="K17" s="155" t="n">
         <v>4</v>
@@ -6063,17 +6059,17 @@
         <f aca="false">IF(AF18=TRUE(),B18,IF(AF20=TRUE(),B20,""))</f>
         <v>team-4092-3-C</v>
       </c>
-      <c r="M17" s="177"/>
+      <c r="M17" s="176"/>
       <c r="N17" s="158" t="n">
         <v>27</v>
       </c>
       <c r="O17" s="164"/>
       <c r="P17" s="160"/>
-      <c r="Q17" s="172" t="str">
+      <c r="Q17" s="171" t="str">
         <f aca="false">IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
-      <c r="R17" s="178"/>
+      <c r="R17" s="177"/>
       <c r="AB17" s="164"/>
       <c r="AC17" s="165"/>
       <c r="AD17" s="165"/>
@@ -6085,7 +6081,7 @@
         <f aca="false">N17+P17</f>
         <v>27</v>
       </c>
-      <c r="AL17" s="166" t="b">
+      <c r="AL17" s="165" t="b">
         <f aca="false">AND(AJ16=TRUE(),AK17&gt;AK15)</f>
         <v>0</v>
       </c>
@@ -6117,7 +6113,7 @@
       <c r="J18" s="162"/>
       <c r="K18" s="163"/>
       <c r="Q18" s="163"/>
-      <c r="R18" s="178"/>
+      <c r="R18" s="177"/>
       <c r="S18" s="151"/>
       <c r="T18" s="151"/>
       <c r="U18" s="151"/>
@@ -6135,11 +6131,11 @@
         <f aca="false">F18+H18</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="166" t="b">
+      <c r="AF18" s="165" t="b">
         <f aca="false">AND(AD19=TRUE(),AE18&gt;AE20)</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="173"/>
+      <c r="AG18" s="172"/>
       <c r="AM18" s="151"/>
       <c r="AN18" s="152" t="s">
         <v>118</v>
@@ -6147,7 +6143,7 @@
       <c r="AO18" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="AP18" s="179" t="s">
+      <c r="AP18" s="178" t="s">
         <v>126</v>
       </c>
       <c r="AQ18" s="153" t="s">
@@ -6159,49 +6155,49 @@
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="89"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171" t="str">
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="170" t="str">
         <f aca="false">IF(AC19=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I19" s="171"/>
+      <c r="I19" s="170"/>
       <c r="J19" s="162"/>
       <c r="K19" s="163"/>
       <c r="Q19" s="163"/>
-      <c r="R19" s="178"/>
+      <c r="R19" s="177"/>
       <c r="S19" s="155"/>
       <c r="T19" s="156" t="str">
         <f aca="false">IF(AL15=TRUE(),L15,IF(AL17=TRUE(),L17,""))</f>
         <v>team-4091-2-C</v>
       </c>
-      <c r="U19" s="177"/>
-      <c r="V19" s="183" t="n">
+      <c r="U19" s="176"/>
+      <c r="V19" s="182" t="n">
         <v>28</v>
       </c>
-      <c r="W19" s="177"/>
-      <c r="X19" s="184"/>
-      <c r="Y19" s="185" t="str">
+      <c r="W19" s="176"/>
+      <c r="X19" s="183"/>
+      <c r="Y19" s="184" t="str">
         <f aca="false">IF(AND(ABS(X19-X21)&lt;1,X19&gt;X21),"*","")</f>
         <v/>
       </c>
-      <c r="Z19" s="173" t="str">
+      <c r="Z19" s="172" t="str">
         <f aca="false">IF(OR(AN20=FALSE(),AQ20=FALSE()),"",IF(AR19=TRUE(),"WINNAAR","2e"))</f>
         <v>WINNAAR</v>
       </c>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="166" t="b">
+      <c r="AA19" s="172"/>
+      <c r="AB19" s="165" t="b">
         <f aca="false">AND(F18&lt;&gt;"",F20&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AC19" s="166" t="b">
+      <c r="AC19" s="165" t="b">
         <f aca="false">AND(AB19=TRUE(),F18=F20)</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="166" t="b">
+      <c r="AD19" s="165" t="b">
         <f aca="false">IF(AB19=FALSE(),FALSE(),OR(AC19=FALSE(),AND(H18&lt;&gt;"",H20&lt;&gt;"")))</f>
         <v>1</v>
       </c>
@@ -6209,7 +6205,7 @@
         <f aca="false">V19+X19</f>
         <v>28</v>
       </c>
-      <c r="AR19" s="166" t="b">
+      <c r="AR19" s="165" t="b">
         <f aca="false">AP19&gt;AP21</f>
         <v>1</v>
       </c>
@@ -6233,79 +6229,79 @@
       </c>
       <c r="G20" s="159"/>
       <c r="H20" s="160"/>
-      <c r="I20" s="172" t="str">
+      <c r="I20" s="171" t="str">
         <f aca="false">IF(AND(ABS(H18-H20)&lt;1,H20&gt;H18),"*","")</f>
         <v/>
       </c>
       <c r="J20" s="162"/>
       <c r="K20" s="163"/>
       <c r="Q20" s="163"/>
-      <c r="R20" s="178"/>
-      <c r="T20" s="180"/>
+      <c r="R20" s="177"/>
+      <c r="T20" s="179"/>
       <c r="U20" s="151"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="186"/>
-      <c r="X20" s="171" t="str">
+      <c r="V20" s="185"/>
+      <c r="W20" s="185"/>
+      <c r="X20" s="170" t="str">
         <f aca="false">IF(AO20=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Y20" s="181"/>
+      <c r="Y20" s="180"/>
       <c r="Z20" s="151"/>
       <c r="AA20" s="151"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="173"/>
+      <c r="AB20" s="172"/>
+      <c r="AC20" s="172"/>
+      <c r="AD20" s="172"/>
       <c r="AE20" s="165" t="n">
         <f aca="false">F20+H20</f>
         <v>1</v>
       </c>
-      <c r="AF20" s="166" t="b">
+      <c r="AF20" s="165" t="b">
         <f aca="false">AND(AD19=TRUE(),AE20&gt;AE18)</f>
         <v>1</v>
       </c>
-      <c r="AN20" s="166" t="b">
+      <c r="AN20" s="165" t="b">
         <f aca="false">AND(V19&lt;&gt;"",V21&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AO20" s="166" t="b">
+      <c r="AO20" s="165" t="b">
         <f aca="false">AND(AN20=TRUE(),V19=V21)</f>
         <v>0</v>
       </c>
-      <c r="AQ20" s="166" t="b">
+      <c r="AQ20" s="165" t="b">
         <f aca="false">OR(AND(X19&lt;&gt;"",X21&lt;&gt;""),AO20=FALSE())</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="187"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
       <c r="H21" s="146"/>
       <c r="I21" s="153"/>
       <c r="J21" s="163"/>
       <c r="K21" s="163"/>
       <c r="Q21" s="163"/>
-      <c r="R21" s="178"/>
+      <c r="R21" s="177"/>
       <c r="S21" s="155"/>
       <c r="T21" s="156" t="str">
         <f aca="false">IF(AL27=TRUE(),L27,IF(AL29=TRUE(),L29,""))</f>
         <v>team-4091-1-C</v>
       </c>
-      <c r="U21" s="177"/>
-      <c r="V21" s="183" t="n">
+      <c r="U21" s="176"/>
+      <c r="V21" s="182" t="n">
         <v>27</v>
       </c>
-      <c r="W21" s="177"/>
-      <c r="X21" s="184"/>
-      <c r="Y21" s="188" t="str">
+      <c r="W21" s="176"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="187" t="str">
         <f aca="false">IF(AND(ABS(X19-X21)&lt;1,X21&gt;X19),"*","")</f>
         <v/>
       </c>
-      <c r="Z21" s="173" t="str">
+      <c r="Z21" s="172" t="str">
         <f aca="false">IF(OR(AN20=FALSE(),AQ20=FALSE()),"",IF(AR21=TRUE(),"WINNAAR","2e"))</f>
         <v>2e</v>
       </c>
-      <c r="AA21" s="173"/>
+      <c r="AA21" s="172"/>
       <c r="AB21" s="164"/>
       <c r="AC21" s="165"/>
       <c r="AD21" s="165"/>
@@ -6314,23 +6310,23 @@
         <v>27</v>
       </c>
       <c r="AQ21" s="165"/>
-      <c r="AR21" s="166" t="b">
+      <c r="AR21" s="165" t="b">
         <f aca="false">AP21&gt;AP19</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
       <c r="H22" s="146"/>
-      <c r="I22" s="189"/>
+      <c r="I22" s="188"/>
       <c r="J22" s="163"/>
       <c r="K22" s="163"/>
       <c r="Q22" s="163"/>
-      <c r="R22" s="178"/>
-      <c r="Z22" s="173"/>
-      <c r="AA22" s="173"/>
+      <c r="R22" s="177"/>
+      <c r="Z22" s="172"/>
+      <c r="AA22" s="172"/>
       <c r="AB22" s="164"/>
       <c r="AC22" s="165"/>
       <c r="AD22" s="165"/>
@@ -6338,16 +6334,16 @@
       <c r="AF22" s="165"/>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="167"/>
+      <c r="I23" s="166"/>
       <c r="Q23" s="163"/>
-      <c r="R23" s="178"/>
-      <c r="AE23" s="170"/>
-      <c r="AF23" s="170"/>
+      <c r="R23" s="177"/>
+      <c r="AE23" s="169"/>
+      <c r="AF23" s="169"/>
       <c r="AH23" s="152"/>
       <c r="AI23" s="152"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="170"/>
-      <c r="AL23" s="170"/>
+      <c r="AJ23" s="169"/>
+      <c r="AK23" s="169"/>
+      <c r="AL23" s="169"/>
     </row>
     <row r="24" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="155" t="n">
@@ -6372,9 +6368,9 @@
         <f aca="false">IF(AND(ABS(H24-H26)&lt;1,H24&gt;H26),"*","")</f>
         <v/>
       </c>
-      <c r="J24" s="190"/>
+      <c r="J24" s="189"/>
       <c r="Q24" s="163"/>
-      <c r="R24" s="178"/>
+      <c r="R24" s="177"/>
       <c r="AB24" s="164"/>
       <c r="AC24" s="165"/>
       <c r="AD24" s="165"/>
@@ -6382,7 +6378,7 @@
         <f aca="false">F24+H24</f>
         <v>1</v>
       </c>
-      <c r="AF24" s="166" t="b">
+      <c r="AF24" s="165" t="b">
         <f aca="false">AND(AD25=TRUE(),AE24&gt;AE26)</f>
         <v>1</v>
       </c>
@@ -6391,36 +6387,36 @@
       <c r="AJ24" s="165"/>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="167"/>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171" t="str">
+      <c r="A25" s="166"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="170" t="str">
         <f aca="false">IF(AC25=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I25" s="171"/>
-      <c r="J25" s="190"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="189"/>
       <c r="Q25" s="163"/>
-      <c r="R25" s="178"/>
-      <c r="AB25" s="166" t="b">
+      <c r="R25" s="177"/>
+      <c r="AB25" s="165" t="b">
         <f aca="false">AND(F24&lt;&gt;"",F26&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AC25" s="166" t="b">
+      <c r="AC25" s="165" t="b">
         <f aca="false">AND(AB25=TRUE(),F24=F26)</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="166" t="b">
+      <c r="AD25" s="165" t="b">
         <f aca="false">IF(AB25=FALSE(),FALSE(),OR(AC25=FALSE(),AND(H24&lt;&gt;"",H26&lt;&gt;"")))</f>
         <v>1</v>
       </c>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="173"/>
-      <c r="AK25" s="170"/>
-      <c r="AL25" s="170"/>
+      <c r="AE25" s="172"/>
+      <c r="AF25" s="172"/>
+      <c r="AK25" s="169"/>
+      <c r="AL25" s="169"/>
     </row>
     <row r="26" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="155" t="n">
@@ -6441,12 +6437,12 @@
       </c>
       <c r="G26" s="159"/>
       <c r="H26" s="160"/>
-      <c r="I26" s="172" t="str">
+      <c r="I26" s="171" t="str">
         <f aca="false">IF(AND(ABS(H24-H26)&lt;1,H26&gt;H24),"*","")</f>
         <v/>
       </c>
-      <c r="J26" s="190"/>
-      <c r="L26" s="180"/>
+      <c r="J26" s="189"/>
+      <c r="L26" s="179"/>
       <c r="N26" s="154" t="s">
         <v>116</v>
       </c>
@@ -6455,7 +6451,7 @@
         <v>117</v>
       </c>
       <c r="Q26" s="163"/>
-      <c r="R26" s="178"/>
+      <c r="R26" s="177"/>
       <c r="AB26" s="164"/>
       <c r="AC26" s="165"/>
       <c r="AD26" s="165"/>
@@ -6463,7 +6459,7 @@
         <f aca="false">F26+H26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="166" t="b">
+      <c r="AF26" s="165" t="b">
         <f aca="false">AND(AD25=TRUE(),AE26&gt;AE24)</f>
         <v>0</v>
       </c>
@@ -6484,15 +6480,15 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="167"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="190"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="189"/>
       <c r="K27" s="155" t="n">
         <v>3</v>
       </c>
@@ -6500,7 +6496,7 @@
         <f aca="false">IF(AF24=TRUE(),B24,IF(AF26=TRUE(),B26,""))</f>
         <v>team-4091-1-C</v>
       </c>
-      <c r="M27" s="177"/>
+      <c r="M27" s="176"/>
       <c r="N27" s="158" t="n">
         <v>24</v>
       </c>
@@ -6510,11 +6506,11 @@
         <f aca="false">IF(AND(ABS(P27-P29)&lt;1,P27&gt;P29),"*","")</f>
         <v/>
       </c>
-      <c r="R27" s="178"/>
+      <c r="R27" s="177"/>
       <c r="Z27" s="151"/>
       <c r="AA27" s="151"/>
-      <c r="AE27" s="170"/>
-      <c r="AF27" s="170"/>
+      <c r="AE27" s="169"/>
+      <c r="AF27" s="169"/>
       <c r="AG27" s="151"/>
       <c r="AH27" s="151"/>
       <c r="AI27" s="151"/>
@@ -6523,36 +6519,36 @@
         <f aca="false">N27+P27</f>
         <v>24</v>
       </c>
-      <c r="AL27" s="166" t="b">
+      <c r="AL27" s="165" t="b">
         <f aca="false">AND(AJ28=TRUE(),AK27&gt;AK29)</f>
         <v>1</v>
       </c>
       <c r="AM27" s="151"/>
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="167"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="L28" s="168"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="171" t="str">
+      <c r="A28" s="166"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="L28" s="167"/>
+      <c r="N28" s="168"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="170" t="str">
         <f aca="false">IF(AI28=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="178"/>
+      <c r="Q28" s="180"/>
+      <c r="R28" s="177"/>
       <c r="T28" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
+      <c r="U28" s="181"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="181"/>
       <c r="X28" s="150"/>
       <c r="Y28" s="154"/>
       <c r="Z28" s="151"/>
@@ -6560,18 +6556,18 @@
       <c r="AB28" s="165"/>
       <c r="AC28" s="165"/>
       <c r="AD28" s="165"/>
-      <c r="AE28" s="170"/>
-      <c r="AF28" s="170"/>
+      <c r="AE28" s="169"/>
+      <c r="AF28" s="169"/>
       <c r="AG28" s="151"/>
-      <c r="AH28" s="166" t="b">
+      <c r="AH28" s="165" t="b">
         <f aca="false">AND(N27&lt;&gt;"",N29&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AI28" s="166" t="b">
+      <c r="AI28" s="165" t="b">
         <f aca="false">AND(AH28=TRUE(),N27=N29)</f>
         <v>0</v>
       </c>
-      <c r="AJ28" s="166" t="b">
+      <c r="AJ28" s="165" t="b">
         <f aca="false">IF(AH28=FALSE(),FALSE(),OR(AI28=FALSE(),AND(P27&lt;&gt;"",P29&lt;&gt;"")))</f>
         <v>1</v>
       </c>
@@ -6580,8 +6576,8 @@
       <c r="AM28" s="151"/>
     </row>
     <row r="29" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="167"/>
-      <c r="J29" s="190"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="189"/>
       <c r="K29" s="155" t="n">
         <v>2</v>
       </c>
@@ -6589,17 +6585,17 @@
         <f aca="false">IF(AF30=TRUE(),B30,IF(AF32=TRUE(),B32,""))</f>
         <v>team-4092-2-C</v>
       </c>
-      <c r="M29" s="177"/>
+      <c r="M29" s="176"/>
       <c r="N29" s="158" t="n">
         <v>20</v>
       </c>
       <c r="O29" s="164"/>
       <c r="P29" s="160"/>
-      <c r="Q29" s="172" t="str">
+      <c r="Q29" s="171" t="str">
         <f aca="false">IF(AND(ABS(P27-P29)&lt;1,P29&gt;P27),"*","")</f>
         <v/>
       </c>
-      <c r="R29" s="178"/>
+      <c r="R29" s="177"/>
       <c r="AB29" s="164"/>
       <c r="AC29" s="165"/>
       <c r="AD29" s="165"/>
@@ -6607,7 +6603,7 @@
         <f aca="false">N29+P29</f>
         <v>20</v>
       </c>
-      <c r="AL29" s="166" t="b">
+      <c r="AL29" s="165" t="b">
         <f aca="false">AND(AJ28=TRUE(),AK29&gt;AK27)</f>
         <v>0</v>
       </c>
@@ -6635,9 +6631,9 @@
         <f aca="false">IF(AND(ABS(H30-H32)&lt;1,H30&gt;H32),"*","")</f>
         <v/>
       </c>
-      <c r="J30" s="190"/>
+      <c r="J30" s="189"/>
       <c r="Q30" s="163"/>
-      <c r="R30" s="178"/>
+      <c r="R30" s="177"/>
       <c r="T30" s="151"/>
       <c r="U30" s="151"/>
       <c r="V30" s="154" t="s">
@@ -6648,14 +6644,14 @@
         <v>117</v>
       </c>
       <c r="Y30" s="154"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
+      <c r="AB30" s="172"/>
+      <c r="AC30" s="172"/>
+      <c r="AD30" s="172"/>
       <c r="AE30" s="165" t="n">
         <f aca="false">F30+H30</f>
         <v>0</v>
       </c>
-      <c r="AF30" s="166" t="b">
+      <c r="AF30" s="165" t="b">
         <f aca="false">AND(AD31=TRUE(),AE30&gt;AE32)</f>
         <v>0</v>
       </c>
@@ -6665,7 +6661,7 @@
       <c r="AO30" s="152" t="s">
         <v>125</v>
       </c>
-      <c r="AP30" s="179" t="s">
+      <c r="AP30" s="178" t="s">
         <v>126</v>
       </c>
       <c r="AQ30" s="153" t="s">
@@ -6676,50 +6672,50 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="167"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="171" t="str">
+      <c r="A31" s="166"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="169"/>
+      <c r="H31" s="170" t="str">
         <f aca="false">IF(AC31=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I31" s="171"/>
-      <c r="J31" s="190"/>
-      <c r="R31" s="178"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="189"/>
+      <c r="R31" s="177"/>
       <c r="S31" s="155"/>
       <c r="T31" s="156" t="str">
         <f aca="false">IF(AL15=TRUE(),L17,IF(AL17=TRUE(),L15,""))</f>
         <v>team-4092-3-C</v>
       </c>
-      <c r="U31" s="177"/>
-      <c r="V31" s="183" t="n">
+      <c r="U31" s="176"/>
+      <c r="V31" s="182" t="n">
         <v>25</v>
       </c>
-      <c r="W31" s="177"/>
-      <c r="X31" s="184" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="185" t="str">
+      <c r="W31" s="176"/>
+      <c r="X31" s="183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="184" t="str">
         <f aca="false">IF(AND(ABS(X31-X33)&lt;1,X31&gt;X33),"*","")</f>
         <v/>
       </c>
-      <c r="Z31" s="173" t="str">
+      <c r="Z31" s="172" t="str">
         <f aca="false">IF(OR(AN32=FALSE(),AQ32=FALSE()),"",IF(AR31=TRUE(),"3e","4e"))</f>
         <v>4e</v>
       </c>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="166" t="b">
+      <c r="AA31" s="172"/>
+      <c r="AB31" s="165" t="b">
         <f aca="false">AND(F30&lt;&gt;"",F32&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AC31" s="166" t="b">
+      <c r="AC31" s="165" t="b">
         <f aca="false">AND(AB31=TRUE(),F30=F32)</f>
         <v>0</v>
       </c>
-      <c r="AD31" s="166" t="b">
+      <c r="AD31" s="165" t="b">
         <f aca="false">IF(AB31=FALSE(),FALSE(),OR(AC31=FALSE(),AND(H30&lt;&gt;"",H32&lt;&gt;"")))</f>
         <v>1</v>
       </c>
@@ -6727,7 +6723,7 @@
         <f aca="false">V31+X31</f>
         <v>25</v>
       </c>
-      <c r="AR31" s="166" t="b">
+      <c r="AR31" s="165" t="b">
         <f aca="false">AP31&gt;AP33</f>
         <v>0</v>
       </c>
@@ -6751,21 +6747,21 @@
       </c>
       <c r="G32" s="159"/>
       <c r="H32" s="160"/>
-      <c r="I32" s="172" t="str">
+      <c r="I32" s="171" t="str">
         <f aca="false">IF(AND(ABS(H30-H32)&lt;1,H32&gt;H30),"*","")</f>
         <v/>
       </c>
-      <c r="J32" s="190"/>
-      <c r="R32" s="178"/>
-      <c r="T32" s="180"/>
+      <c r="J32" s="189"/>
+      <c r="R32" s="177"/>
+      <c r="T32" s="179"/>
       <c r="U32" s="151"/>
-      <c r="V32" s="186"/>
-      <c r="W32" s="186"/>
-      <c r="X32" s="171" t="str">
+      <c r="V32" s="185"/>
+      <c r="W32" s="185"/>
+      <c r="X32" s="170" t="str">
         <f aca="false">IF(AO32=TRUE(),"SO","")</f>
         <v>SO</v>
       </c>
-      <c r="Y32" s="181"/>
+      <c r="Y32" s="180"/>
       <c r="Z32" s="151"/>
       <c r="AA32" s="151"/>
       <c r="AB32" s="154"/>
@@ -6775,7 +6771,7 @@
         <f aca="false">F32+H32</f>
         <v>1</v>
       </c>
-      <c r="AF32" s="166" t="b">
+      <c r="AF32" s="165" t="b">
         <f aca="false">AND(AD31=TRUE(),AE32&gt;AE30)</f>
         <v>1</v>
       </c>
@@ -6786,52 +6782,52 @@
       <c r="AK32" s="154"/>
       <c r="AL32" s="154"/>
       <c r="AM32" s="154"/>
-      <c r="AN32" s="166" t="b">
+      <c r="AN32" s="165" t="b">
         <f aca="false">AND(V31&lt;&gt;"",V33&lt;&gt;"")</f>
         <v>1</v>
       </c>
-      <c r="AO32" s="166" t="b">
+      <c r="AO32" s="165" t="b">
         <f aca="false">AND(AN32=TRUE(),V31=V33)</f>
         <v>1</v>
       </c>
-      <c r="AQ32" s="166" t="b">
+      <c r="AQ32" s="165" t="b">
         <f aca="false">OR(AND(X31&lt;&gt;"",X33&lt;&gt;""),AO32=FALSE())</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="167"/>
-      <c r="R33" s="178"/>
+      <c r="I33" s="166"/>
+      <c r="R33" s="177"/>
       <c r="S33" s="155"/>
       <c r="T33" s="156" t="str">
         <f aca="false">IF(AL27=TRUE(),L29,IF(AL29=TRUE(),L27,""))</f>
         <v>team-4092-2-C</v>
       </c>
-      <c r="U33" s="177"/>
-      <c r="V33" s="183" t="n">
+      <c r="U33" s="176"/>
+      <c r="V33" s="182" t="n">
         <v>25</v>
       </c>
-      <c r="W33" s="177"/>
-      <c r="X33" s="184" t="n">
+      <c r="W33" s="176"/>
+      <c r="X33" s="183" t="n">
         <v>1</v>
       </c>
-      <c r="Y33" s="188" t="str">
+      <c r="Y33" s="187" t="str">
         <f aca="false">IF(AND(ABS(X31-X33)&lt;1,X33&gt;X31),"*","")</f>
         <v/>
       </c>
-      <c r="Z33" s="173" t="str">
+      <c r="Z33" s="172" t="str">
         <f aca="false">IF(OR(AN32=FALSE(),AQ32=FALSE()),"",IF(AR33=TRUE(),"3e","4e"))</f>
         <v>3e</v>
       </c>
-      <c r="AA33" s="173"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="173"/>
-      <c r="AF33" s="173"/>
-      <c r="AG33" s="173"/>
-      <c r="AH33" s="173"/>
-      <c r="AI33" s="173"/>
+      <c r="AA33" s="172"/>
+      <c r="AB33" s="172"/>
+      <c r="AC33" s="172"/>
+      <c r="AD33" s="172"/>
+      <c r="AE33" s="172"/>
+      <c r="AF33" s="172"/>
+      <c r="AG33" s="172"/>
+      <c r="AH33" s="172"/>
+      <c r="AI33" s="172"/>
       <c r="AJ33" s="151"/>
       <c r="AK33" s="151"/>
       <c r="AL33" s="151"/>
@@ -6840,13 +6836,13 @@
         <f aca="false">V33+X33</f>
         <v>26</v>
       </c>
-      <c r="AR33" s="166" t="b">
+      <c r="AR33" s="165" t="b">
         <f aca="false">AP33&gt;AP31</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="167"/>
+      <c r="I34" s="166"/>
       <c r="AB34" s="151"/>
       <c r="AC34" s="151"/>
       <c r="AD34" s="151"/>
@@ -6861,21 +6857,21 @@
       <c r="AM34" s="151"/>
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="167"/>
-      <c r="AB35" s="173"/>
-      <c r="AC35" s="173"/>
-      <c r="AD35" s="173"/>
-      <c r="AE35" s="173"/>
-      <c r="AF35" s="173"/>
-      <c r="AG35" s="173"/>
-      <c r="AH35" s="173"/>
-      <c r="AI35" s="173"/>
+      <c r="I35" s="166"/>
+      <c r="AB35" s="172"/>
+      <c r="AC35" s="172"/>
+      <c r="AD35" s="172"/>
+      <c r="AE35" s="172"/>
+      <c r="AF35" s="172"/>
+      <c r="AG35" s="172"/>
+      <c r="AH35" s="172"/>
+      <c r="AI35" s="172"/>
       <c r="AJ35" s="151"/>
       <c r="AK35" s="151"/>
       <c r="AL35" s="151"/>
       <c r="AM35" s="151"/>
       <c r="AN35" s="165"/>
-      <c r="AO35" s="173"/>
+      <c r="AO35" s="172"/>
       <c r="AQ35" s="165"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,7 +6948,7 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="1" sqref="D33 N15"/>
+      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55859375" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7031,16 +7027,16 @@
       <c r="G7" s="149"/>
       <c r="H7" s="150"/>
       <c r="J7" s="152"/>
-      <c r="K7" s="173"/>
+      <c r="K7" s="172"/>
       <c r="T7" s="164"/>
       <c r="U7" s="165"/>
       <c r="V7" s="165"/>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J8" s="152"/>
-      <c r="K8" s="187"/>
-      <c r="W8" s="170"/>
-      <c r="X8" s="170"/>
+      <c r="K8" s="186"/>
+      <c r="W8" s="169"/>
+      <c r="X8" s="169"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J9" s="152"/>
@@ -7052,7 +7048,7 @@
       <c r="Y9" s="154"/>
       <c r="Z9" s="152"/>
       <c r="AA9" s="152"/>
-      <c r="AB9" s="179"/>
+      <c r="AB9" s="178"/>
       <c r="AC9" s="153"/>
       <c r="AD9" s="153"/>
     </row>
@@ -7097,67 +7093,67 @@
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A11,20)&gt;0,INDEX(Uitslag!D$9:D$20,A11,1),"")</f>
         <v>[4091] Club 4091</v>
       </c>
-      <c r="E11" s="177"/>
-      <c r="F11" s="183"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="182"/>
       <c r="G11" s="164"/>
-      <c r="H11" s="191"/>
+      <c r="H11" s="190"/>
       <c r="I11" s="161" t="str">
         <f aca="false">IF(AND(ABS(H11-H13)&lt;1,H11&gt;H13),"*","")</f>
         <v/>
       </c>
-      <c r="J11" s="192"/>
+      <c r="J11" s="191"/>
       <c r="R11" s="151"/>
       <c r="S11" s="151"/>
-      <c r="T11" s="170"/>
+      <c r="T11" s="169"/>
       <c r="U11" s="165"/>
-      <c r="V11" s="170"/>
+      <c r="V11" s="169"/>
       <c r="W11" s="165" t="n">
         <f aca="false">F11+H11</f>
         <v>0</v>
       </c>
-      <c r="X11" s="166" t="b">
+      <c r="X11" s="165" t="b">
         <f aca="false">AND(V12=TRUE(),W11&gt;W13)</f>
         <v>0</v>
       </c>
       <c r="Y11" s="151"/>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="167"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="171" t="str">
+      <c r="A12" s="166"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="170" t="str">
         <f aca="false">IF(U12=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I12" s="181"/>
-      <c r="J12" s="192"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="191"/>
       <c r="L12" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="M12" s="182"/>
-      <c r="N12" s="182"/>
-      <c r="O12" s="182"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
       <c r="P12" s="150"/>
-      <c r="T12" s="166" t="b">
+      <c r="T12" s="165" t="b">
         <f aca="false">AND(F11&lt;&gt;"",F13&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="U12" s="166" t="b">
+      <c r="U12" s="165" t="b">
         <f aca="false">AND(T12=TRUE(),F11=F13)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="166" t="b">
+      <c r="V12" s="165" t="b">
         <f aca="false">IF(T12=FALSE(),FALSE(),OR(U12=FALSE(),AND(H11&lt;&gt;"",H13&lt;&gt;"")))</f>
         <v>0</v>
       </c>
-      <c r="W12" s="170"/>
-      <c r="X12" s="170"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
       <c r="Y12" s="151"/>
       <c r="Z12" s="165"/>
-      <c r="AA12" s="173"/>
+      <c r="AA12" s="172"/>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="155" t="n">
@@ -7172,16 +7168,16 @@
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A13,20)&gt;0,INDEX(Uitslag!D$9:D$20,A13,1),"")</f>
         <v>[4092] Club 4092</v>
       </c>
-      <c r="E13" s="177"/>
-      <c r="F13" s="183"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="182"/>
       <c r="G13" s="164"/>
-      <c r="H13" s="191"/>
-      <c r="I13" s="172" t="str">
+      <c r="H13" s="190"/>
+      <c r="I13" s="171" t="str">
         <f aca="false">IF(AND(ABS(H11-H13)&lt;1,H13&gt;H11),"*","")</f>
         <v/>
       </c>
-      <c r="J13" s="192"/>
-      <c r="K13" s="173"/>
+      <c r="J13" s="191"/>
+      <c r="K13" s="172"/>
       <c r="T13" s="164"/>
       <c r="U13" s="165"/>
       <c r="V13" s="165"/>
@@ -7189,7 +7185,7 @@
         <f aca="false">F13+H13</f>
         <v>0</v>
       </c>
-      <c r="X13" s="166" t="b">
+      <c r="X13" s="165" t="b">
         <f aca="false">AND(V12=TRUE(),W13&gt;W11)</f>
         <v>0</v>
       </c>
@@ -7197,8 +7193,8 @@
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I14" s="163"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="173"/>
+      <c r="J14" s="191"/>
+      <c r="K14" s="172"/>
       <c r="L14" s="151"/>
       <c r="M14" s="151"/>
       <c r="N14" s="154" t="s">
@@ -7209,8 +7205,8 @@
         <v>117</v>
       </c>
       <c r="Q14" s="154"/>
-      <c r="W14" s="170"/>
-      <c r="X14" s="170"/>
+      <c r="W14" s="169"/>
+      <c r="X14" s="169"/>
       <c r="Z14" s="152" t="s">
         <v>118</v>
       </c>
@@ -7229,25 +7225,25 @@
     </row>
     <row r="15" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I15" s="163"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="178"/>
+      <c r="J15" s="191"/>
+      <c r="K15" s="177"/>
       <c r="L15" s="156" t="str">
         <f aca="false">IF(X11=TRUE(),B11,IF(X13=TRUE(),B13,""))</f>
         <v/>
       </c>
-      <c r="M15" s="177"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="184"/>
-      <c r="Q15" s="193" t="str">
+      <c r="M15" s="176"/>
+      <c r="N15" s="182"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="183"/>
+      <c r="Q15" s="192" t="str">
         <f aca="false">IF(AND(ABS(P15-P17)&lt;1,P15&gt;P17),"*","")</f>
         <v/>
       </c>
-      <c r="R15" s="173" t="str">
+      <c r="R15" s="172" t="str">
         <f aca="false">IF(OR(Z16=FALSE(),AC16=FALSE()),"",IF(AD15=TRUE(),"WINNAAR","2e"))</f>
         <v/>
       </c>
-      <c r="S15" s="173"/>
+      <c r="S15" s="172"/>
       <c r="T15" s="164"/>
       <c r="U15" s="165"/>
       <c r="V15" s="165"/>
@@ -7255,91 +7251,91 @@
         <f aca="false">N15+P15</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="166" t="b">
+      <c r="AD15" s="165" t="b">
         <f aca="false">AB15&gt;AB17</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I16" s="163"/>
-      <c r="J16" s="194"/>
-      <c r="L16" s="180"/>
+      <c r="J16" s="193"/>
+      <c r="L16" s="179"/>
       <c r="M16" s="151"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="171" t="str">
+      <c r="N16" s="185"/>
+      <c r="O16" s="185"/>
+      <c r="P16" s="170" t="str">
         <f aca="false">IF(AA16=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Q16" s="181"/>
-      <c r="Z16" s="166" t="b">
+      <c r="Q16" s="180"/>
+      <c r="Z16" s="165" t="b">
         <f aca="false">AND(N15&lt;&gt;"",N17&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="166" t="b">
+      <c r="AA16" s="165" t="b">
         <f aca="false">AND(Z16=TRUE(),N15=N17)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="166" t="b">
+      <c r="AC16" s="165" t="b">
         <f aca="false">OR(AND(P15&lt;&gt;"",P17&lt;&gt;""),AA16=FALSE())</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="167"/>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
       <c r="I17" s="163"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="178"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="177"/>
       <c r="L17" s="156" t="str">
         <f aca="false">IF(X20=TRUE(),B20,IF(X22=TRUE(),B22,""))</f>
         <v/>
       </c>
-      <c r="M17" s="177"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="177"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="195" t="str">
+      <c r="M17" s="176"/>
+      <c r="N17" s="182"/>
+      <c r="O17" s="176"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="194" t="str">
         <f aca="false">IF(AND(ABS(P15-P17)&lt;1,P17&gt;P15),"*","")</f>
         <v/>
       </c>
-      <c r="R17" s="173" t="str">
+      <c r="R17" s="172" t="str">
         <f aca="false">IF(OR(Z16=FALSE(),AC16=FALSE()),"",IF(AD17=TRUE(),"WINNAAR","2e"))</f>
         <v/>
       </c>
-      <c r="S17" s="173"/>
+      <c r="S17" s="172"/>
       <c r="AB17" s="165" t="n">
         <f aca="false">N17+P17</f>
         <v>0</v>
       </c>
       <c r="AC17" s="165"/>
-      <c r="AD17" s="166" t="b">
+      <c r="AD17" s="165" t="b">
         <f aca="false">AB17&gt;AB15</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="167"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
       <c r="I18" s="163"/>
-      <c r="J18" s="194"/>
+      <c r="J18" s="193"/>
       <c r="Q18" s="163"/>
     </row>
     <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="167"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="179"/>
       <c r="F19" s="154" t="s">
         <v>116</v>
       </c>
@@ -7348,7 +7344,7 @@
         <v>117</v>
       </c>
       <c r="I19" s="163"/>
-      <c r="J19" s="194"/>
+      <c r="J19" s="193"/>
       <c r="Q19" s="163"/>
       <c r="T19" s="152" t="s">
         <v>118</v>
@@ -7379,15 +7375,15 @@
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A20,20)&gt;0,INDEX(Uitslag!D$9:D$20,A20,1),"")</f>
         <v>[4091] Club 4091</v>
       </c>
-      <c r="E20" s="177"/>
-      <c r="F20" s="183"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="182"/>
       <c r="G20" s="164"/>
-      <c r="H20" s="191"/>
+      <c r="H20" s="190"/>
       <c r="I20" s="161" t="str">
         <f aca="false">IF(AND(ABS(H20-H22)&lt;1,H20&gt;H22),"*","")</f>
         <v/>
       </c>
-      <c r="J20" s="194"/>
+      <c r="J20" s="193"/>
       <c r="Q20" s="163"/>
       <c r="R20" s="151"/>
       <c r="S20" s="151"/>
@@ -7398,42 +7394,42 @@
         <f aca="false">F20+H20</f>
         <v>0</v>
       </c>
-      <c r="X20" s="166" t="b">
+      <c r="X20" s="165" t="b">
         <f aca="false">AND(V21=TRUE(),W20&gt;W22)</f>
         <v>0</v>
       </c>
       <c r="Y20" s="151"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="167"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171" t="str">
+      <c r="A21" s="166"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="169"/>
+      <c r="H21" s="170" t="str">
         <f aca="false">IF(U21=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="I21" s="181"/>
-      <c r="J21" s="194"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="193"/>
       <c r="L21" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
       <c r="P21" s="150"/>
       <c r="Q21" s="163"/>
-      <c r="T21" s="166" t="b">
+      <c r="T21" s="165" t="b">
         <f aca="false">AND(F20&lt;&gt;"",F22&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="U21" s="166" t="b">
+      <c r="U21" s="165" t="b">
         <f aca="false">AND(T21=TRUE(),F20=F22)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="166" t="b">
+      <c r="V21" s="165" t="b">
         <f aca="false">IF(T21=FALSE(),FALSE(),OR(U21=FALSE(),AND(H20&lt;&gt;"",H22&lt;&gt;"")))</f>
         <v>0</v>
       </c>
@@ -7451,31 +7447,31 @@
         <f aca="false">IF(INDEX(Uitslag!C$9:V$20,A22,20)&gt;0,INDEX(Uitslag!D$9:D$20,A22,1),"")</f>
         <v>[4092] Club 4092</v>
       </c>
-      <c r="E22" s="177"/>
-      <c r="F22" s="183"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="182"/>
       <c r="G22" s="164"/>
-      <c r="H22" s="191"/>
-      <c r="I22" s="172" t="str">
+      <c r="H22" s="190"/>
+      <c r="I22" s="171" t="str">
         <f aca="false">IF(AND(ABS(H20-H22)&lt;1,H22&gt;H20),"*","")</f>
         <v/>
       </c>
-      <c r="J22" s="194"/>
+      <c r="J22" s="193"/>
       <c r="Q22" s="163"/>
       <c r="W22" s="165" t="n">
         <f aca="false">F22+H22</f>
         <v>0</v>
       </c>
-      <c r="X22" s="166" t="b">
+      <c r="X22" s="165" t="b">
         <f aca="false">AND(V21=TRUE(),W22&gt;W20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J23" s="194"/>
+      <c r="J23" s="193"/>
       <c r="Q23" s="163"/>
     </row>
     <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J24" s="194"/>
+      <c r="J24" s="193"/>
       <c r="L24" s="151"/>
       <c r="M24" s="151"/>
       <c r="N24" s="154" t="s">
@@ -7511,27 +7507,27 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J25" s="194"/>
-      <c r="K25" s="178"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="177"/>
       <c r="L25" s="156" t="str">
         <f aca="false">IF(X11=TRUE(),B13,IF(X13=TRUE(),B11,""))</f>
         <v/>
       </c>
-      <c r="M25" s="177"/>
-      <c r="N25" s="183"/>
-      <c r="O25" s="177"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="193" t="str">
+      <c r="M25" s="176"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="176"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="192" t="str">
         <f aca="false">IF(AND(ABS(P25-P27)&lt;1,P25&gt;P27),"*","")</f>
         <v/>
       </c>
-      <c r="R25" s="173" t="str">
+      <c r="R25" s="172" t="str">
         <f aca="false">IF(OR(Z26=FALSE(),AC26=FALSE()),"",IF(AD25=TRUE(),"3e","4e"))</f>
         <v/>
       </c>
-      <c r="S25" s="173"/>
-      <c r="T25" s="173"/>
-      <c r="U25" s="173"/>
+      <c r="S25" s="172"/>
+      <c r="T25" s="172"/>
+      <c r="U25" s="172"/>
       <c r="V25" s="151"/>
       <c r="W25" s="151"/>
       <c r="X25" s="151"/>
@@ -7540,22 +7536,22 @@
         <f aca="false">N25+P25</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="166" t="b">
+      <c r="AD25" s="165" t="b">
         <f aca="false">AB25&gt;AB27</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J26" s="194"/>
-      <c r="L26" s="180"/>
+      <c r="J26" s="193"/>
+      <c r="L26" s="179"/>
       <c r="M26" s="151"/>
-      <c r="N26" s="186"/>
-      <c r="O26" s="186"/>
-      <c r="P26" s="171" t="str">
+      <c r="N26" s="185"/>
+      <c r="O26" s="185"/>
+      <c r="P26" s="170" t="str">
         <f aca="false">IF(AA26=TRUE(),"SO","")</f>
         <v/>
       </c>
-      <c r="Q26" s="181"/>
+      <c r="Q26" s="180"/>
       <c r="R26" s="151"/>
       <c r="S26" s="151"/>
       <c r="T26" s="151"/>
@@ -7564,53 +7560,53 @@
       <c r="W26" s="151"/>
       <c r="X26" s="151"/>
       <c r="Y26" s="151"/>
-      <c r="Z26" s="166" t="b">
+      <c r="Z26" s="165" t="b">
         <f aca="false">AND(N25&lt;&gt;"",N27&lt;&gt;"")</f>
         <v>0</v>
       </c>
-      <c r="AA26" s="166" t="b">
+      <c r="AA26" s="165" t="b">
         <f aca="false">AND(Z26=TRUE(),N25=N27)</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="166" t="b">
+      <c r="AC26" s="165" t="b">
         <f aca="false">OR(AND(P25&lt;&gt;"",P27&lt;&gt;""),AA26=FALSE())</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="194"/>
-      <c r="K27" s="178"/>
+      <c r="J27" s="193"/>
+      <c r="K27" s="177"/>
       <c r="L27" s="156" t="str">
         <f aca="false">IF(X20=TRUE(),B22,IF(X22=TRUE(),B20,""))</f>
         <v/>
       </c>
-      <c r="M27" s="177"/>
-      <c r="N27" s="183"/>
-      <c r="O27" s="177"/>
-      <c r="P27" s="184"/>
-      <c r="Q27" s="195" t="str">
+      <c r="M27" s="176"/>
+      <c r="N27" s="182"/>
+      <c r="O27" s="176"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="194" t="str">
         <f aca="false">IF(AND(ABS(P25-P27)&lt;1,P27&gt;P25),"*","")</f>
         <v/>
       </c>
-      <c r="R27" s="173" t="str">
+      <c r="R27" s="172" t="str">
         <f aca="false">IF(OR(Z26=FALSE(),AC26=FALSE()),"",IF(AD27=TRUE(),"3e","4e"))</f>
         <v/>
       </c>
-      <c r="S27" s="173"/>
-      <c r="T27" s="173"/>
-      <c r="U27" s="173"/>
+      <c r="S27" s="172"/>
+      <c r="T27" s="172"/>
+      <c r="U27" s="172"/>
       <c r="V27" s="151"/>
       <c r="W27" s="151"/>
       <c r="X27" s="151"/>
       <c r="Y27" s="151"/>
       <c r="Z27" s="165"/>
-      <c r="AA27" s="173"/>
+      <c r="AA27" s="172"/>
       <c r="AB27" s="165" t="n">
         <f aca="false">N27+P27</f>
         <v>0</v>
       </c>
       <c r="AC27" s="165"/>
-      <c r="AD27" s="166" t="b">
+      <c r="AD27" s="165" t="b">
         <f aca="false">AB27&gt;AB25</f>
         <v>0</v>
       </c>
